--- a/ocms/src/test/resources/TestData/TmacAuxCodesData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacAuxCodesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Invalid" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q24"/>
+  <oleSize ref="A1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -411,7 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -460,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TmacAuxCodesData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacAuxCodesData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Invalid" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O24"/>
+  <oleSize ref="A1:M20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,10 +85,10 @@
     <t>o</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>up</t>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>er</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -469,7 +469,7 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
@@ -529,14 +529,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/TmacAuxCodesData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacAuxCodesData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{28E3F813-637D-42FA-AF6F-F091805B00A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="Invalid" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:L13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,14 +402,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -457,7 +458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -526,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -582,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
